--- a/src/main/resources/poi_test.xlsx
+++ b/src/main/resources/poi_test.xlsx
@@ -11,18 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Teste Texto</t>
   </si>
   <si>
-    <t>Teste 1</t>
-  </si>
-  <si>
-    <t>Teste 2</t>
-  </si>
-  <si>
-    <t>Teste 3</t>
+    <t>Decimal</t>
+  </si>
+  <si>
+    <t>Integer</t>
   </si>
   <si>
     <t>Data</t>
@@ -50,11 +47,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,7 +77,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -300,70 +297,77 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
     <row r="3">
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>43861.0</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.2</v>
+        <v>1.121212</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.0</v>
       </c>
       <c r="E4" s="1">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="F4" s="3">
-        <v>43862.0</v>
+        <v>43861.0</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.3</v>
-      </c>
-      <c r="E5" s="2">
+        <v>1.23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>43862.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="1">
         <v>3.3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F6" s="3">
         <v>43863.0</v>
       </c>
     </row>

--- a/src/main/resources/poi_test.xlsx
+++ b/src/main/resources/poi_test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>Teste Texto</t>
   </si>
@@ -371,6 +371,57 @@
         <v>43863.0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.121212</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>43861.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>43862.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>43863.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
